--- a/Årsplan - 2425 – IT2.xlsx
+++ b/Årsplan - 2425 – IT2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iktagder-my.sharepoint.com/personal/fredrik_pettersen_mandal_vgs_no/Documents/2024 - 2025/IT2_2425_elev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="8_{865BB95E-C4AD-467E-BA78-E08323D10E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A702212C-A9C6-4611-9F9F-641F14465460}"/>
+  <xr:revisionPtr revIDLastSave="425" documentId="8_{865BB95E-C4AD-467E-BA78-E08323D10E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA14E400-04CD-4405-AFE2-F7D751451D72}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
   <si>
     <t>Arbeidsplan Naturfag 1IDA</t>
   </si>
@@ -106,6 +106,177 @@
   </si>
   <si>
     <t>2. pinsedag</t>
+  </si>
+  <si>
+    <t>Oppstart</t>
+  </si>
+  <si>
+    <t>1.7 Feilhåndtering</t>
+  </si>
+  <si>
+    <t>1.6 Filer</t>
+  </si>
+  <si>
+    <t>1.5 Lister</t>
+  </si>
+  <si>
+    <t>1.4 Løkker</t>
+  </si>
+  <si>
+    <t>1.1 Grunnleggende programmering</t>
+  </si>
+  <si>
+    <t>1.2 Datatyper</t>
+  </si>
+  <si>
+    <t>1.3 Tekstformatering</t>
+  </si>
+  <si>
+    <t>Ukesoppdrag</t>
+  </si>
+  <si>
+    <t>Selvstudie</t>
+  </si>
+  <si>
+    <t>1.8 Modellering</t>
+  </si>
+  <si>
+    <t>1.9 Reelle datasett</t>
+  </si>
+  <si>
+    <t>1.10 Informasjonsteknologi</t>
+  </si>
+  <si>
+    <t>Timejustering</t>
+  </si>
+  <si>
+    <t>2.1 GUI</t>
+  </si>
+  <si>
+    <t>Repetisjon</t>
+  </si>
+  <si>
+    <t>Vurdering</t>
+  </si>
+  <si>
+    <t>Fagdag</t>
+  </si>
+  <si>
+    <t>Eksamen</t>
+  </si>
+  <si>
+    <t>Skrivedag, norsk</t>
+  </si>
+  <si>
+    <t>Religionstur</t>
+  </si>
+  <si>
+    <t>Fagdag, blokk 2</t>
+  </si>
+  <si>
+    <t>Fagdag, blokk 4</t>
+  </si>
+  <si>
+    <t>Volleyballturnering</t>
+  </si>
+  <si>
+    <t>Fagdag, norsk</t>
+  </si>
+  <si>
+    <t>Fagdag, historie</t>
+  </si>
+  <si>
+    <t>Fagdag, blokk 3</t>
+  </si>
+  <si>
+    <t>Eksamensperiode</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eksamensperiode</t>
+  </si>
+  <si>
+    <t>2.2 Tupler og ordbøker</t>
+  </si>
+  <si>
+    <t>2.4 Funksjoner</t>
+  </si>
+  <si>
+    <t>2.5 Testing</t>
+  </si>
+  <si>
+    <t>2.6 OOP</t>
+  </si>
+  <si>
+    <t>2.7 Verktøy for systemutvikling</t>
+  </si>
+  <si>
+    <t>2.8 + 2.9 JSON</t>
+  </si>
+  <si>
+    <t>2.10 Deepfakes</t>
+  </si>
+  <si>
+    <t>3.1 NumPy og pandas</t>
+  </si>
+  <si>
+    <t>3.2 Diagrammer med seaborn</t>
+  </si>
+  <si>
+    <t>3.3 Sett og boolsk algebra</t>
+  </si>
+  <si>
+    <t>3.4 pygame</t>
+  </si>
+  <si>
+    <t>3.5 Klassediagram</t>
+  </si>
+  <si>
+    <t>3.7 Enhetstesting</t>
+  </si>
+  <si>
+    <t>3.8 Mer pandas</t>
+  </si>
+  <si>
+    <t>3.9 Reelle datasett med OOP og GUI</t>
+  </si>
+  <si>
+    <t>3.10 KI</t>
+  </si>
+  <si>
+    <t>4.1 Brukervennlighet</t>
+  </si>
+  <si>
+    <t>4.2 Mer pygame</t>
+  </si>
+  <si>
+    <t>4.3 Datarensing og utforsking</t>
+  </si>
+  <si>
+    <t>4.4 Datasimuleringer</t>
+  </si>
+  <si>
+    <t>4.5 Standarder for datahåndtering</t>
+  </si>
+  <si>
+    <t>4.9 Reelle datasett med REST API</t>
+  </si>
+  <si>
+    <t>Eksamensforberedelse</t>
+  </si>
+  <si>
+    <t>5.1 Dato og tid</t>
+  </si>
+  <si>
+    <t>5.2 Tilfeldig tall og utvalg</t>
+  </si>
+  <si>
+    <t>5.3 Sortering</t>
+  </si>
+  <si>
+    <t>5.4 Rekursjon</t>
+  </si>
+  <si>
+    <t>5.9 Hendelser, kollisjoner osv. med tkinter</t>
   </si>
 </sst>
 </file>
@@ -172,7 +343,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +398,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -479,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -618,15 +813,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -639,12 +825,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -701,6 +881,45 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,6 +943,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1020,7 +1243,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1251,7 @@
     <col min="1" max="1" width="5.21875" style="25" customWidth="1"/>
     <col min="2" max="3" width="9.5546875" style="25" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="32" customWidth="1"/>
     <col min="6" max="6" width="26.77734375" style="25" customWidth="1"/>
     <col min="7" max="7" width="14.44140625" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.77734375" style="25" bestFit="1" customWidth="1"/>
@@ -1041,24 +1264,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
@@ -1104,18 +1327,20 @@
       <c r="C5" s="12">
         <v>45522</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="I5" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F5" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>34</v>
       </c>
@@ -1125,12 +1350,18 @@
       <c r="C6" s="12">
         <v>45529</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="27"/>
+      <c r="D6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="G6" s="13"/>
-      <c r="I6" s="9" t="s">
-        <v>13</v>
+      <c r="I6" s="9">
+        <v>4.5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1143,12 +1374,18 @@
       <c r="C7" s="12">
         <v>45536</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="27"/>
+      <c r="D7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>27</v>
+      </c>
       <c r="G7" s="13"/>
-      <c r="I7" s="9" t="s">
-        <v>13</v>
+      <c r="I7" s="9">
+        <v>4.5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1161,10 +1398,17 @@
       <c r="C8" s="12">
         <v>45543</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="F8" s="27"/>
-      <c r="I8" s="9" t="s">
-        <v>13</v>
+      <c r="D8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="9">
+        <v>4.5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1177,11 +1421,17 @@
       <c r="C9" s="12">
         <v>45550</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="27"/>
-      <c r="I9" s="9" t="s">
-        <v>13</v>
+      <c r="D9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1194,16 +1444,22 @@
       <c r="C10" s="12">
         <v>45557</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="27"/>
+      <c r="D10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>35</v>
+      </c>
       <c r="G10" s="9"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="9">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>39</v>
       </c>
@@ -1213,11 +1469,17 @@
       <c r="C11" s="12">
         <v>45564</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="27"/>
-      <c r="I11" s="9" t="s">
-        <v>13</v>
+      <c r="D11" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1230,13 +1492,13 @@
       <c r="C12" s="14">
         <v>45571</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="I12" s="9" t="s">
-        <v>13</v>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="I12" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1249,11 +1511,18 @@
       <c r="C13" s="14">
         <v>45578</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="G13" s="13"/>
-      <c r="I13" s="9" t="s">
-        <v>13</v>
+      <c r="I13" s="9">
+        <v>4.5</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1266,13 +1535,17 @@
       <c r="C14" s="14">
         <v>45585</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="52" t="s">
+      <c r="D14" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>13</v>
+      <c r="I14" s="9">
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1285,12 +1558,18 @@
       <c r="C15" s="14">
         <v>45592</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="27"/>
+      <c r="D15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="71" t="s">
+        <v>33</v>
+      </c>
       <c r="G15" s="13"/>
-      <c r="I15" s="9" t="s">
-        <v>13</v>
+      <c r="I15" s="9">
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1303,11 +1582,17 @@
       <c r="C16" s="14">
         <v>45599</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="27"/>
-      <c r="I16" s="9" t="s">
-        <v>13</v>
+      <c r="D16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1320,14 +1605,20 @@
       <c r="C17" s="14">
         <v>45606</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="27"/>
-      <c r="I17" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>46</v>
       </c>
@@ -1337,11 +1628,17 @@
       <c r="C18" s="14">
         <v>45613</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="27"/>
-      <c r="I18" s="9" t="s">
-        <v>13</v>
+      <c r="D18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1354,14 +1651,20 @@
       <c r="C19" s="14">
         <v>45620</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="27"/>
-      <c r="I19" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="9">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>48</v>
       </c>
@@ -1371,15 +1674,21 @@
       <c r="C20" s="14">
         <v>45627</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="27"/>
+      <c r="D20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="71" t="s">
+        <v>33</v>
+      </c>
       <c r="G20" s="13"/>
-      <c r="I20" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>49</v>
       </c>
@@ -1389,12 +1698,18 @@
       <c r="C21" s="14">
         <v>45634</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="27"/>
+      <c r="D21" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="76" t="s">
+        <v>45</v>
+      </c>
       <c r="G21" s="13"/>
-      <c r="I21" s="9" t="s">
-        <v>13</v>
+      <c r="I21" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -1407,13 +1722,19 @@
       <c r="C22" s="14">
         <v>45641</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="32"/>
+      <c r="D22" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="71" t="s">
+        <v>33</v>
+      </c>
       <c r="G22" s="13"/>
       <c r="H22" s="32"/>
-      <c r="I22" s="13" t="s">
-        <v>13</v>
+      <c r="I22" s="13">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -1426,14 +1747,20 @@
       <c r="C23" s="12">
         <v>45648</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13" t="s">
+      <c r="D23" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="50" t="s">
         <v>21</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="32"/>
-      <c r="I23" s="13"/>
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
@@ -1445,13 +1772,13 @@
       <c r="C24" s="12">
         <v>45655</v>
       </c>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="67"/>
-      <c r="F24" s="68"/>
-      <c r="I24" s="9" t="s">
-        <v>13</v>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63"/>
+      <c r="I24" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1464,13 +1791,13 @@
       <c r="C25" s="12">
         <v>45296</v>
       </c>
-      <c r="D25" s="70" t="s">
+      <c r="D25" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="71"/>
-      <c r="F25" s="72"/>
-      <c r="I25" s="9" t="s">
-        <v>13</v>
+      <c r="E25" s="66"/>
+      <c r="F25" s="67"/>
+      <c r="I25" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1483,30 +1810,32 @@
       <c r="C26" s="12">
         <v>45303</v>
       </c>
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="50" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="27"/>
-      <c r="I26" s="9" t="s">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="F26" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="9">
+        <v>4.5</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="59"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="54"/>
       <c r="G27" s="20"/>
       <c r="I27" s="44">
         <f>SUM(I5:I26)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -1520,17 +1849,19 @@
         <v>45310</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="27"/>
-      <c r="I28" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="F28" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>4</v>
       </c>
@@ -1541,15 +1872,17 @@
         <v>45317</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="27"/>
+        <v>67</v>
+      </c>
+      <c r="F29" s="71" t="s">
+        <v>33</v>
+      </c>
       <c r="G29" s="35"/>
-      <c r="I29" s="9" t="s">
-        <v>13</v>
+      <c r="I29" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1563,15 +1896,17 @@
         <v>45324</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="27"/>
+        <v>39</v>
+      </c>
+      <c r="F30" s="71" t="s">
+        <v>33</v>
+      </c>
       <c r="G30" s="35"/>
-      <c r="I30" s="9" t="s">
-        <v>13</v>
+      <c r="I30" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1584,16 +1919,18 @@
       <c r="C31" s="12">
         <v>45331</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>13</v>
+      <c r="D31" s="72" t="s">
+        <v>40</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="27"/>
+        <v>69</v>
+      </c>
+      <c r="F31" s="71" t="s">
+        <v>33</v>
+      </c>
       <c r="G31" s="35"/>
-      <c r="I31" s="9" t="s">
-        <v>13</v>
+      <c r="I31" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1607,15 +1944,17 @@
         <v>45338</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="27"/>
+        <v>70</v>
+      </c>
+      <c r="F32" s="71" t="s">
+        <v>33</v>
+      </c>
       <c r="G32" s="35"/>
-      <c r="I32" s="9" t="s">
-        <v>13</v>
+      <c r="I32" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1628,16 +1967,16 @@
       <c r="C33" s="19">
         <v>45345</v>
       </c>
-      <c r="D33" s="69" t="s">
+      <c r="D33" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="I33" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="I33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>9</v>
       </c>
@@ -1648,18 +1987,20 @@
         <v>45353</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="27"/>
+        <v>72</v>
+      </c>
+      <c r="F34" s="71" t="s">
+        <v>33</v>
+      </c>
       <c r="G34" s="13"/>
-      <c r="I34" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I34" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21">
         <v>10</v>
       </c>
@@ -1670,15 +2011,17 @@
         <v>45360</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="27"/>
+        <v>74</v>
+      </c>
+      <c r="F35" s="71" t="s">
+        <v>33</v>
+      </c>
       <c r="G35" s="36"/>
-      <c r="I35" s="9" t="s">
-        <v>13</v>
+      <c r="I35" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1692,14 +2035,16 @@
         <v>45367</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="27"/>
-      <c r="I36" s="9" t="s">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="E36" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1713,15 +2058,17 @@
         <v>45374</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="27"/>
+        <v>77</v>
+      </c>
+      <c r="F37" s="71" t="s">
+        <v>33</v>
+      </c>
       <c r="G37" s="36"/>
-      <c r="I37" s="9" t="s">
-        <v>13</v>
+      <c r="I37" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1734,15 +2081,21 @@
       <c r="C38" s="39">
         <v>45381</v>
       </c>
-      <c r="D38" s="54"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
+      <c r="D38" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="71" t="s">
+        <v>33</v>
+      </c>
       <c r="G38" s="36"/>
-      <c r="I38" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I38" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>14</v>
       </c>
@@ -1752,12 +2105,18 @@
       <c r="C39" s="41">
         <v>45388</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="9"/>
+      <c r="D39" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="71" t="s">
+        <v>33</v>
+      </c>
       <c r="G39" s="36"/>
-      <c r="I39" s="9" t="s">
-        <v>13</v>
+      <c r="I39" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1770,15 +2129,17 @@
       <c r="C40" s="12">
         <v>45395</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="49"/>
-      <c r="I40" s="9" t="s">
-        <v>13</v>
+      <c r="D40" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="I40" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1791,13 +2152,13 @@
       <c r="C41" s="12">
         <v>45463</v>
       </c>
-      <c r="D41" s="73" t="s">
+      <c r="D41" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="74"/>
-      <c r="F41" s="75"/>
-      <c r="I41" s="9" t="s">
-        <v>13</v>
+      <c r="E41" s="69"/>
+      <c r="F41" s="70"/>
+      <c r="I41" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1814,11 +2175,13 @@
         <v>16</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="27"/>
-      <c r="I42" s="9" t="s">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="F42" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42" s="9">
+        <v>1.5</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1831,15 +2194,17 @@
       <c r="C43" s="12">
         <v>45416</v>
       </c>
-      <c r="D43" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="27"/>
-      <c r="I43" s="9" t="s">
-        <v>13</v>
+      <c r="D43" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="9">
+        <v>6.5</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1853,14 +2218,16 @@
         <v>45423</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="48"/>
-      <c r="I44" s="9" t="s">
-        <v>13</v>
+        <v>75</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I44" s="9">
+        <v>4.5</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1873,16 +2240,16 @@
       <c r="C45" s="12">
         <v>45430</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="56"/>
+      <c r="D45" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="80"/>
       <c r="G45" s="36"/>
-      <c r="I45" s="9" t="s">
-        <v>13</v>
+      <c r="I45" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1895,15 +2262,13 @@
       <c r="C46" s="12">
         <v>45437</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>13</v>
+      <c r="D46" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="81"/>
+      <c r="F46" s="80"/>
+      <c r="I46" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1916,19 +2281,17 @@
       <c r="C47" s="12">
         <v>45444</v>
       </c>
-      <c r="D47" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="D47" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="82"/>
       <c r="F47" s="43" t="s">
         <v>22</v>
       </c>
       <c r="G47" s="36"/>
       <c r="H47" s="25"/>
-      <c r="I47" s="9" t="s">
-        <v>13</v>
+      <c r="I47" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1945,9 +2308,9 @@
       <c r="E48" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="48"/>
-      <c r="I48" s="9" t="s">
-        <v>13</v>
+      <c r="F48" s="82"/>
+      <c r="I48" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -1963,13 +2326,15 @@
       <c r="D49" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="48"/>
+      <c r="E49" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="G49" s="36"/>
-      <c r="I49" s="9" t="s">
-        <v>13</v>
+      <c r="I49" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -1982,17 +2347,17 @@
       <c r="C50" s="12">
         <v>45465</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>13</v>
+      <c r="D50" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="F50" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I50" s="9" t="s">
-        <v>13</v>
+      <c r="I50" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -2013,22 +2378,22 @@
       <c r="F52" s="27"/>
       <c r="I52" s="44">
         <f>SUM(I28:I51)</f>
-        <v>0</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="57" t="s">
+      <c r="A53" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="59"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="54"/>
       <c r="G53" s="20"/>
       <c r="I53" s="44">
         <f>I27+I52</f>
-        <v>0</v>
+        <v>111.5</v>
       </c>
       <c r="J53" s="46" t="s">
         <v>13</v>
@@ -2097,7 +2462,7 @@
       <c r="D1048575" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="A53:F53"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -2107,6 +2472,8 @@
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D41:F41"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="D46:F46"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2144,9 +2511,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2321,19 +2691,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B07430-6BCC-4282-8F52-297D885FAD4F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E35A054-E1C7-4BEB-A605-3B5F23CC3CE4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2358,9 +2724,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E35A054-E1C7-4BEB-A605-3B5F23CC3CE4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B07430-6BCC-4282-8F52-297D885FAD4F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Årsplan - 2425 – IT2.xlsx
+++ b/Årsplan - 2425 – IT2.xlsx
@@ -674,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -825,6 +825,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -882,30 +909,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -914,12 +917,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1242,8 +1239,8 @@
   <dimension ref="A1:Q1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,24 +1261,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
@@ -1427,7 +1424,7 @@
       <c r="E9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I9" s="9">
@@ -1469,7 +1466,7 @@
       <c r="C11" s="12">
         <v>45564</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="54" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="27" t="s">
@@ -1492,11 +1489,11 @@
       <c r="C12" s="14">
         <v>45571</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
       <c r="I12" s="9">
         <v>0</v>
       </c>
@@ -1535,7 +1532,7 @@
       <c r="C14" s="14">
         <v>45585</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="53" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="24" t="s">
@@ -1564,7 +1561,7 @@
       <c r="E15" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="71" t="s">
+      <c r="F15" s="52" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="13"/>
@@ -1588,7 +1585,7 @@
       <c r="E16" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="71" t="s">
+      <c r="F16" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I16" s="9">
@@ -1611,7 +1608,7 @@
       <c r="E17" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I17" s="9">
@@ -1634,7 +1631,7 @@
       <c r="E18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="76" t="s">
+      <c r="F18" s="57" t="s">
         <v>44</v>
       </c>
       <c r="I18" s="9">
@@ -1657,7 +1654,7 @@
       <c r="E19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="55" t="s">
         <v>40</v>
       </c>
       <c r="I19" s="9">
@@ -1680,7 +1677,7 @@
       <c r="E20" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="71" t="s">
+      <c r="F20" s="52" t="s">
         <v>33</v>
       </c>
       <c r="G20" s="13"/>
@@ -1704,7 +1701,7 @@
       <c r="E21" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="76" t="s">
+      <c r="F21" s="57" t="s">
         <v>45</v>
       </c>
       <c r="G21" s="13"/>
@@ -1728,7 +1725,7 @@
       <c r="E22" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="71" t="s">
+      <c r="F22" s="52" t="s">
         <v>33</v>
       </c>
       <c r="G22" s="13"/>
@@ -1772,11 +1769,11 @@
       <c r="C24" s="12">
         <v>45655</v>
       </c>
-      <c r="D24" s="62" t="s">
+      <c r="D24" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
       <c r="I24" s="9">
         <v>0</v>
       </c>
@@ -1791,11 +1788,11 @@
       <c r="C25" s="12">
         <v>45296</v>
       </c>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="66"/>
-      <c r="F25" s="67"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="76"/>
       <c r="I25" s="9">
         <v>0</v>
       </c>
@@ -1816,7 +1813,7 @@
       <c r="E26" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="74" t="s">
+      <c r="F26" s="55" t="s">
         <v>41</v>
       </c>
       <c r="I26" s="9">
@@ -1824,14 +1821,14 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="54"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
       <c r="G27" s="20"/>
       <c r="I27" s="44">
         <f>SUM(I5:I26)</f>
@@ -1854,7 +1851,7 @@
       <c r="E28" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="71" t="s">
+      <c r="F28" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I28" s="9">
@@ -1877,7 +1874,7 @@
       <c r="E29" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="71" t="s">
+      <c r="F29" s="52" t="s">
         <v>33</v>
       </c>
       <c r="G29" s="35"/>
@@ -1901,7 +1898,7 @@
       <c r="E30" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="71" t="s">
+      <c r="F30" s="52" t="s">
         <v>33</v>
       </c>
       <c r="G30" s="35"/>
@@ -1919,13 +1916,13 @@
       <c r="C31" s="12">
         <v>45331</v>
       </c>
-      <c r="D31" s="72" t="s">
+      <c r="D31" s="53" t="s">
         <v>40</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="71" t="s">
+      <c r="F31" s="52" t="s">
         <v>33</v>
       </c>
       <c r="G31" s="35"/>
@@ -1949,7 +1946,7 @@
       <c r="E32" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="71" t="s">
+      <c r="F32" s="52" t="s">
         <v>33</v>
       </c>
       <c r="G32" s="35"/>
@@ -1967,11 +1964,11 @@
       <c r="C33" s="19">
         <v>45345</v>
       </c>
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
       <c r="I33" s="9">
         <v>0</v>
       </c>
@@ -1992,7 +1989,7 @@
       <c r="E34" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="71" t="s">
+      <c r="F34" s="52" t="s">
         <v>33</v>
       </c>
       <c r="G34" s="13"/>
@@ -2016,7 +2013,7 @@
       <c r="E35" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F35" s="71" t="s">
+      <c r="F35" s="52" t="s">
         <v>33</v>
       </c>
       <c r="G35" s="36"/>
@@ -2037,10 +2034,10 @@
       <c r="D36" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="72" t="s">
+      <c r="E36" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="71" t="s">
+      <c r="F36" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I36" s="9">
@@ -2063,7 +2060,7 @@
       <c r="E37" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="71" t="s">
+      <c r="F37" s="52" t="s">
         <v>33</v>
       </c>
       <c r="G37" s="36"/>
@@ -2084,10 +2081,10 @@
       <c r="D38" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="83" t="s">
+      <c r="E38" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="F38" s="71" t="s">
+      <c r="F38" s="52" t="s">
         <v>33</v>
       </c>
       <c r="G38" s="36"/>
@@ -2111,7 +2108,7 @@
       <c r="E39" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F39" s="71" t="s">
+      <c r="F39" s="52" t="s">
         <v>33</v>
       </c>
       <c r="G39" s="36"/>
@@ -2129,13 +2126,13 @@
       <c r="C40" s="12">
         <v>45395</v>
       </c>
-      <c r="D40" s="77" t="s">
+      <c r="D40" s="58" t="s">
         <v>48</v>
       </c>
       <c r="E40" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="78" t="s">
+      <c r="F40" s="59" t="s">
         <v>50</v>
       </c>
       <c r="I40" s="9">
@@ -2152,11 +2149,11 @@
       <c r="C41" s="12">
         <v>45463</v>
       </c>
-      <c r="D41" s="68" t="s">
+      <c r="D41" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="69"/>
-      <c r="F41" s="70"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="79"/>
       <c r="I41" s="9">
         <v>0</v>
       </c>
@@ -2177,7 +2174,7 @@
       <c r="E42" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F42" s="76" t="s">
+      <c r="F42" s="57" t="s">
         <v>45</v>
       </c>
       <c r="I42" s="9">
@@ -2197,10 +2194,10 @@
       <c r="D43" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="72" t="s">
+      <c r="E43" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="71" t="s">
+      <c r="F43" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="9">
@@ -2240,13 +2237,13 @@
       <c r="C45" s="12">
         <v>45430</v>
       </c>
-      <c r="D45" s="75" t="s">
+      <c r="D45" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="79" t="s">
+      <c r="E45" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="F45" s="80"/>
+      <c r="F45" s="81"/>
       <c r="G45" s="36"/>
       <c r="I45" s="9">
         <v>0</v>
@@ -2262,11 +2259,11 @@
       <c r="C46" s="12">
         <v>45437</v>
       </c>
-      <c r="D46" s="79" t="s">
+      <c r="D46" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="E46" s="81"/>
-      <c r="F46" s="80"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="81"/>
       <c r="I46" s="9">
         <v>0</v>
       </c>
@@ -2281,10 +2278,10 @@
       <c r="C47" s="12">
         <v>45444</v>
       </c>
-      <c r="D47" s="71" t="s">
+      <c r="D47" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="82"/>
+      <c r="E47" s="27"/>
       <c r="F47" s="43" t="s">
         <v>22</v>
       </c>
@@ -2308,7 +2305,7 @@
       <c r="E48" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="82"/>
+      <c r="F48" s="27"/>
       <c r="I48" s="9">
         <v>3</v>
       </c>
@@ -2382,14 +2379,14 @@
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="52" t="s">
+      <c r="A53" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="54"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="63"/>
       <c r="G53" s="20"/>
       <c r="I53" s="44">
         <f>I27+I52</f>
@@ -2511,12 +2508,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2691,15 +2685,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E35A054-E1C7-4BEB-A605-3B5F23CC3CE4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B07430-6BCC-4282-8F52-297D885FAD4F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2724,10 +2722,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B07430-6BCC-4282-8F52-297D885FAD4F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E35A054-E1C7-4BEB-A605-3B5F23CC3CE4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Årsplan - 2425 – IT2.xlsx
+++ b/Årsplan - 2425 – IT2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iktagder-my.sharepoint.com/personal/fredrik_pettersen_mandal_vgs_no/Documents/2024 - 2025/IT2_2425_elev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="425" documentId="8_{865BB95E-C4AD-467E-BA78-E08323D10E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA14E400-04CD-4405-AFE2-F7D751451D72}"/>
+  <xr:revisionPtr revIDLastSave="429" documentId="8_{865BB95E-C4AD-467E-BA78-E08323D10E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07B70F2C-A805-45AD-A3C5-E393AEB0301C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1239,8 +1239,8 @@
   <dimension ref="A1:Q1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,8 +1535,8 @@
       <c r="D14" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>37</v>
+      <c r="E14" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="F14" s="49" t="s">
         <v>20</v>
@@ -1556,7 +1556,7 @@
         <v>45592</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" s="50" t="s">
         <v>43</v>
@@ -1580,10 +1580,10 @@
         <v>45599</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F16" s="52" t="s">
         <v>33</v>
@@ -2508,9 +2508,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2685,19 +2688,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B07430-6BCC-4282-8F52-297D885FAD4F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E35A054-E1C7-4BEB-A605-3B5F23CC3CE4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2722,9 +2721,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E35A054-E1C7-4BEB-A605-3B5F23CC3CE4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B07430-6BCC-4282-8F52-297D885FAD4F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Årsplan - 2425 – IT2.xlsx
+++ b/Årsplan - 2425 – IT2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iktagder-my.sharepoint.com/personal/fredrik_pettersen_mandal_vgs_no/Documents/2024 - 2025/IT2_2425_elev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="429" documentId="8_{865BB95E-C4AD-467E-BA78-E08323D10E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07B70F2C-A805-45AD-A3C5-E393AEB0301C}"/>
+  <xr:revisionPtr revIDLastSave="431" documentId="8_{865BB95E-C4AD-467E-BA78-E08323D10E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88572FF5-DEB2-444B-A59B-5DC48981D538}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
   <si>
     <t>Arbeidsplan Naturfag 1IDA</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>2.4 Funksjoner</t>
-  </si>
-  <si>
-    <t>2.5 Testing</t>
   </si>
   <si>
     <t>2.6 OOP</t>
@@ -1239,8 +1236,8 @@
   <dimension ref="A1:Q1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,7 +1539,7 @@
         <v>20</v>
       </c>
       <c r="I14" s="9">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1583,7 +1580,7 @@
         <v>55</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" s="52" t="s">
         <v>33</v>
@@ -1603,10 +1600,10 @@
         <v>45606</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="52" t="s">
         <v>33</v>
@@ -1626,10 +1623,10 @@
         <v>45613</v>
       </c>
       <c r="D18" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="F18" s="57" t="s">
         <v>44</v>
@@ -1649,7 +1646,7 @@
         <v>45620</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>39</v>
@@ -1672,10 +1669,10 @@
         <v>45627</v>
       </c>
       <c r="D20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>61</v>
       </c>
       <c r="F20" s="52" t="s">
         <v>33</v>
@@ -1696,10 +1693,10 @@
         <v>45634</v>
       </c>
       <c r="D21" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="F21" s="57" t="s">
         <v>45</v>
@@ -1720,10 +1717,10 @@
         <v>45641</v>
       </c>
       <c r="D22" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="F22" s="52" t="s">
         <v>33</v>
@@ -1832,7 +1829,7 @@
       <c r="G27" s="20"/>
       <c r="I27" s="44">
         <f>SUM(I5:I26)</f>
-        <v>60</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -1846,10 +1843,10 @@
         <v>45310</v>
       </c>
       <c r="D28" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="F28" s="52" t="s">
         <v>33</v>
@@ -1869,10 +1866,10 @@
         <v>45317</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29" s="52" t="s">
         <v>33</v>
@@ -1893,7 +1890,7 @@
         <v>45324</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>39</v>
@@ -1920,7 +1917,7 @@
         <v>40</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F31" s="52" t="s">
         <v>33</v>
@@ -1941,10 +1938,10 @@
         <v>45338</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F32" s="52" t="s">
         <v>33</v>
@@ -1984,10 +1981,10 @@
         <v>45353</v>
       </c>
       <c r="D34" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="F34" s="52" t="s">
         <v>33</v>
@@ -2008,10 +2005,10 @@
         <v>45360</v>
       </c>
       <c r="D35" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>74</v>
       </c>
       <c r="F35" s="52" t="s">
         <v>33</v>
@@ -2055,10 +2052,10 @@
         <v>45374</v>
       </c>
       <c r="D37" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>76</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>77</v>
       </c>
       <c r="F37" s="52" t="s">
         <v>33</v>
@@ -2079,10 +2076,10 @@
         <v>45381</v>
       </c>
       <c r="D38" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="60" t="s">
         <v>78</v>
-      </c>
-      <c r="E38" s="60" t="s">
-        <v>79</v>
       </c>
       <c r="F38" s="52" t="s">
         <v>33</v>
@@ -2103,10 +2100,10 @@
         <v>45388</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F39" s="52" t="s">
         <v>33</v>
@@ -2215,13 +2212,13 @@
         <v>45423</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I44" s="9">
         <v>4.5</v>
@@ -2390,7 +2387,7 @@
       <c r="G53" s="20"/>
       <c r="I53" s="44">
         <f>I27+I52</f>
-        <v>111.5</v>
+        <v>113</v>
       </c>
       <c r="J53" s="46" t="s">
         <v>13</v>
@@ -2508,12 +2505,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2688,15 +2682,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E35A054-E1C7-4BEB-A605-3B5F23CC3CE4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B07430-6BCC-4282-8F52-297D885FAD4F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2721,10 +2719,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B07430-6BCC-4282-8F52-297D885FAD4F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E35A054-E1C7-4BEB-A605-3B5F23CC3CE4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Årsplan - 2425 – IT2.xlsx
+++ b/Årsplan - 2425 – IT2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iktagder-my.sharepoint.com/personal/fredrik_pettersen_mandal_vgs_no/Documents/2024 - 2025/IT2_2425_elev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="431" documentId="8_{865BB95E-C4AD-467E-BA78-E08323D10E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88572FF5-DEB2-444B-A59B-5DC48981D538}"/>
+  <xr:revisionPtr revIDLastSave="433" documentId="8_{865BB95E-C4AD-467E-BA78-E08323D10E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33F37F23-A5BB-465A-B873-FA12D106F095}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
   <si>
     <t>Arbeidsplan Naturfag 1IDA</t>
   </si>
@@ -205,9 +205,6 @@
   </si>
   <si>
     <t>2.7 Verktøy for systemutvikling</t>
-  </si>
-  <si>
-    <t>2.8 + 2.9 JSON</t>
   </si>
   <si>
     <t>2.10 Deepfakes</t>
@@ -1236,8 +1233,8 @@
   <dimension ref="A1:Q1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <pane ySplit="4" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1623,10 +1620,10 @@
         <v>45613</v>
       </c>
       <c r="D18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>57</v>
       </c>
       <c r="F18" s="57" t="s">
         <v>44</v>
@@ -1646,7 +1643,7 @@
         <v>45620</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>39</v>
@@ -1669,10 +1666,10 @@
         <v>45627</v>
       </c>
       <c r="D20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="F20" s="52" t="s">
         <v>33</v>
@@ -1693,10 +1690,10 @@
         <v>45634</v>
       </c>
       <c r="D21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="F21" s="57" t="s">
         <v>45</v>
@@ -1717,10 +1714,10 @@
         <v>45641</v>
       </c>
       <c r="D22" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="F22" s="52" t="s">
         <v>33</v>
@@ -1843,10 +1840,10 @@
         <v>45310</v>
       </c>
       <c r="D28" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="F28" s="52" t="s">
         <v>33</v>
@@ -1866,10 +1863,10 @@
         <v>45317</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F29" s="52" t="s">
         <v>33</v>
@@ -1890,7 +1887,7 @@
         <v>45324</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>39</v>
@@ -1917,7 +1914,7 @@
         <v>40</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31" s="52" t="s">
         <v>33</v>
@@ -1938,10 +1935,10 @@
         <v>45338</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F32" s="52" t="s">
         <v>33</v>
@@ -1981,10 +1978,10 @@
         <v>45353</v>
       </c>
       <c r="D34" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="F34" s="52" t="s">
         <v>33</v>
@@ -2005,10 +2002,10 @@
         <v>45360</v>
       </c>
       <c r="D35" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>73</v>
       </c>
       <c r="F35" s="52" t="s">
         <v>33</v>
@@ -2052,10 +2049,10 @@
         <v>45374</v>
       </c>
       <c r="D37" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="F37" s="52" t="s">
         <v>33</v>
@@ -2076,10 +2073,10 @@
         <v>45381</v>
       </c>
       <c r="D38" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="60" t="s">
         <v>77</v>
-      </c>
-      <c r="E38" s="60" t="s">
-        <v>78</v>
       </c>
       <c r="F38" s="52" t="s">
         <v>33</v>
@@ -2100,10 +2097,10 @@
         <v>45388</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F39" s="52" t="s">
         <v>33</v>
@@ -2212,13 +2209,13 @@
         <v>45423</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I44" s="9">
         <v>4.5</v>
@@ -2505,9 +2502,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2682,19 +2682,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B07430-6BCC-4282-8F52-297D885FAD4F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E35A054-E1C7-4BEB-A605-3B5F23CC3CE4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2719,9 +2715,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E35A054-E1C7-4BEB-A605-3B5F23CC3CE4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B07430-6BCC-4282-8F52-297D885FAD4F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Årsplan - 2425 – IT2.xlsx
+++ b/Årsplan - 2425 – IT2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iktagder-my.sharepoint.com/personal/fredrik_pettersen_mandal_vgs_no/Documents/2024 - 2025/IT2_2425_elev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="433" documentId="8_{865BB95E-C4AD-467E-BA78-E08323D10E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33F37F23-A5BB-465A-B873-FA12D106F095}"/>
+  <xr:revisionPtr revIDLastSave="436" documentId="8_{865BB95E-C4AD-467E-BA78-E08323D10E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{135628E2-FE55-47D0-80BB-0AA62C75DDEB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
   <si>
     <t>Arbeidsplan Naturfag 1IDA</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>5.9 Hendelser, kollisjoner osv. med tkinter</t>
+  </si>
+  <si>
+    <t>Dialogmøte</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1237,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,11 +1602,11 @@
       <c r="D17" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="52" t="s">
+      <c r="E17" s="52" t="s">
         <v>33</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>79</v>
       </c>
       <c r="I17" s="9">
         <v>3</v>
@@ -2502,12 +2505,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2682,15 +2682,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E35A054-E1C7-4BEB-A605-3B5F23CC3CE4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B07430-6BCC-4282-8F52-297D885FAD4F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2715,10 +2719,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B07430-6BCC-4282-8F52-297D885FAD4F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E35A054-E1C7-4BEB-A605-3B5F23CC3CE4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Årsplan - 2425 – IT2.xlsx
+++ b/Årsplan - 2425 – IT2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iktagder-my.sharepoint.com/personal/fredrik_pettersen_mandal_vgs_no/Documents/2024 - 2025/IT2_2425_elev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="436" documentId="8_{865BB95E-C4AD-467E-BA78-E08323D10E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{135628E2-FE55-47D0-80BB-0AA62C75DDEB}"/>
+  <xr:revisionPtr revIDLastSave="439" documentId="8_{865BB95E-C4AD-467E-BA78-E08323D10E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8339288-1E5F-40D2-B432-D285B5F67FA3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
   <si>
     <t>Arbeidsplan Naturfag 1IDA</t>
   </si>
@@ -207,12 +207,6 @@
     <t>2.7 Verktøy for systemutvikling</t>
   </si>
   <si>
-    <t>2.10 Deepfakes</t>
-  </si>
-  <si>
-    <t>3.1 NumPy og pandas</t>
-  </si>
-  <si>
     <t>3.2 Diagrammer med seaborn</t>
   </si>
   <si>
@@ -274,6 +268,15 @@
   </si>
   <si>
     <t>Dialogmøte</t>
+  </si>
+  <si>
+    <t>2.10 Energi og data</t>
+  </si>
+  <si>
+    <t>VGO-dag</t>
+  </si>
+  <si>
+    <t>3.1 pandas</t>
   </si>
 </sst>
 </file>
@@ -1236,8 +1239,8 @@
   <dimension ref="A1:Q1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,7 +1609,7 @@
         <v>33</v>
       </c>
       <c r="F17" s="57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I17" s="9">
         <v>3</v>
@@ -1646,10 +1649,10 @@
         <v>45620</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="F19" s="55" t="s">
         <v>40</v>
@@ -1669,10 +1672,10 @@
         <v>45627</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F20" s="52" t="s">
         <v>33</v>
@@ -1693,10 +1696,10 @@
         <v>45634</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F21" s="57" t="s">
         <v>45</v>
@@ -1717,10 +1720,10 @@
         <v>45641</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F22" s="52" t="s">
         <v>33</v>
@@ -1843,10 +1846,10 @@
         <v>45310</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F28" s="52" t="s">
         <v>33</v>
@@ -1866,10 +1869,10 @@
         <v>45317</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F29" s="52" t="s">
         <v>33</v>
@@ -1890,7 +1893,7 @@
         <v>45324</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>39</v>
@@ -1917,7 +1920,7 @@
         <v>40</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" s="52" t="s">
         <v>33</v>
@@ -1938,10 +1941,10 @@
         <v>45338</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F32" s="52" t="s">
         <v>33</v>
@@ -1981,10 +1984,10 @@
         <v>45353</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F34" s="52" t="s">
         <v>33</v>
@@ -2005,10 +2008,10 @@
         <v>45360</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F35" s="52" t="s">
         <v>33</v>
@@ -2052,10 +2055,10 @@
         <v>45374</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F37" s="52" t="s">
         <v>33</v>
@@ -2076,10 +2079,10 @@
         <v>45381</v>
       </c>
       <c r="D38" s="51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E38" s="60" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F38" s="52" t="s">
         <v>33</v>
@@ -2100,10 +2103,10 @@
         <v>45388</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F39" s="52" t="s">
         <v>33</v>
@@ -2212,13 +2215,13 @@
         <v>45423</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I44" s="9">
         <v>4.5</v>
@@ -2505,9 +2508,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2682,19 +2688,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B07430-6BCC-4282-8F52-297D885FAD4F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E35A054-E1C7-4BEB-A605-3B5F23CC3CE4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2719,9 +2721,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E35A054-E1C7-4BEB-A605-3B5F23CC3CE4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B07430-6BCC-4282-8F52-297D885FAD4F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Årsplan - 2425 – IT2.xlsx
+++ b/Årsplan - 2425 – IT2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iktagder-my.sharepoint.com/personal/fredrik_pettersen_mandal_vgs_no/Documents/2024 - 2025/IT2_2425_elev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="439" documentId="8_{865BB95E-C4AD-467E-BA78-E08323D10E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8339288-1E5F-40D2-B432-D285B5F67FA3}"/>
+  <xr:revisionPtr revIDLastSave="441" documentId="8_{865BB95E-C4AD-467E-BA78-E08323D10E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB6B0FF6-D1AF-44B9-B489-BA1F551297AB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
   <si>
     <t>Arbeidsplan Naturfag 1IDA</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>3.2 Diagrammer med seaborn</t>
-  </si>
-  <si>
-    <t>3.3 Sett og boolsk algebra</t>
   </si>
   <si>
     <t>3.4 pygame</t>
@@ -1239,8 +1236,8 @@
   <dimension ref="A1:Q1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,7 +1606,7 @@
         <v>33</v>
       </c>
       <c r="F17" s="57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I17" s="9">
         <v>3</v>
@@ -1649,10 +1646,10 @@
         <v>45620</v>
       </c>
       <c r="D19" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>79</v>
       </c>
       <c r="F19" s="55" t="s">
         <v>40</v>
@@ -1672,7 +1669,7 @@
         <v>45627</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>57</v>
@@ -1685,7 +1682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>49</v>
       </c>
@@ -1695,18 +1692,18 @@
       <c r="C21" s="14">
         <v>45634</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="F21" s="57" t="s">
         <v>45</v>
       </c>
       <c r="G21" s="13"/>
       <c r="I21" s="9">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -1720,10 +1717,10 @@
         <v>45641</v>
       </c>
       <c r="D22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="F22" s="52" t="s">
         <v>33</v>
@@ -1832,7 +1829,7 @@
       <c r="G27" s="20"/>
       <c r="I27" s="44">
         <f>SUM(I5:I26)</f>
-        <v>61.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -1846,10 +1843,10 @@
         <v>45310</v>
       </c>
       <c r="D28" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="F28" s="52" t="s">
         <v>33</v>
@@ -1869,10 +1866,10 @@
         <v>45317</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F29" s="52" t="s">
         <v>33</v>
@@ -1893,7 +1890,7 @@
         <v>45324</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>39</v>
@@ -1920,7 +1917,7 @@
         <v>40</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="52" t="s">
         <v>33</v>
@@ -1941,10 +1938,10 @@
         <v>45338</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F32" s="52" t="s">
         <v>33</v>
@@ -1984,10 +1981,10 @@
         <v>45353</v>
       </c>
       <c r="D34" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>68</v>
       </c>
       <c r="F34" s="52" t="s">
         <v>33</v>
@@ -2008,10 +2005,10 @@
         <v>45360</v>
       </c>
       <c r="D35" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="F35" s="52" t="s">
         <v>33</v>
@@ -2055,10 +2052,10 @@
         <v>45374</v>
       </c>
       <c r="D37" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>73</v>
       </c>
       <c r="F37" s="52" t="s">
         <v>33</v>
@@ -2079,10 +2076,10 @@
         <v>45381</v>
       </c>
       <c r="D38" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="60" t="s">
         <v>74</v>
-      </c>
-      <c r="E38" s="60" t="s">
-        <v>75</v>
       </c>
       <c r="F38" s="52" t="s">
         <v>33</v>
@@ -2103,10 +2100,10 @@
         <v>45388</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F39" s="52" t="s">
         <v>33</v>
@@ -2215,13 +2212,13 @@
         <v>45423</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I44" s="9">
         <v>4.5</v>
@@ -2390,7 +2387,7 @@
       <c r="G53" s="20"/>
       <c r="I53" s="44">
         <f>I27+I52</f>
-        <v>113</v>
+        <v>111.5</v>
       </c>
       <c r="J53" s="46" t="s">
         <v>13</v>
@@ -2508,12 +2505,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2688,15 +2682,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E35A054-E1C7-4BEB-A605-3B5F23CC3CE4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B07430-6BCC-4282-8F52-297D885FAD4F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2721,10 +2719,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B07430-6BCC-4282-8F52-297D885FAD4F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E35A054-E1C7-4BEB-A605-3B5F23CC3CE4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>